--- a/EG4-DBDump (1).xlsx
+++ b/EG4-DBDump (1).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amatamuadthong/Desktop/467_multi_media/Project/Reckoning/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF738C51-C21F-294E-A944-D96557333355}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D6A8C29-AFEF-0F4B-8110-780546E04370}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11128,7 +11128,7 @@
   <dimension ref="A1:I1145"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="230" zoomScaleNormal="230" workbookViewId="0">
-      <selection activeCell="F986" sqref="F986"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15.75" customHeight="1"/>
